--- a/Question_Set2/Role-specific skills/HR Management.xlsx
+++ b/Question_Set2/Role-specific skills/HR Management.xlsx
@@ -16,23 +16,58 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You are the HR manager for a startup software company. You have recently implemented a $20,000 employment branding campaign to spotlight the company’s culture and benefits to potential job seekers.  Which Key Performance Indicator (KPI) should you use to measure the financial gain of the campaign?', 'ques_type': 2, 'options': ['Return on investment.', 'Turnover rate.', 'Position time to fill.', 'New hire retention rate.'], 'score': 'Return on investment.'}, {'title': 'You are the HR manager for an auto manufacturer. The accounting manager has confided to you that she is nervous about leading an upcoming termination meeting because she is unsure how to deal with the significant pushback that is expected from the separating employee. How should you offer to help her?', 'ques_type': 2, 'options': ['“Would you like me to conduct the meeting and update you afterward?”', '“Would you like me to cancel the meeting and give the employee another opportunity to improve?”', '“Would you like to role-play the conversation with me in advance and look at some talking points you can use?”', '“Would you like me to authorize an increase in their severance package you can use if they push back?”'], 'score': '“Would you like to role-play the conversation with me in advance and look at some talking points you can use?”'}, {'title': 'You are working as the HR manager at a paper company. A warehouse employee who started today has just told you that she is four months pregnant. She said she can only lift 10 pounds (approx. 4.5 kg) instead of the required 50 pounds (approx. 22.5 kg) and has requested a job accommodation. What action should you take?', 'ques_type': 2, 'options': ['Ask the employee why she did not disclose her pregnancy during the interview.', 'Terminate the employee without addressing the accommodation.', 'Change the job description to reduce the lifting requirement.', 'Determine if there is a position available within the company that can accommodate the lifting restriction.'], 'score': 'Determine if there is a position available within the company that can accommodate the lifting restriction.'}, {'title': 'Your chief executive officer has requested that the accounting department consider hiring his nephew as an assistant accountant.  True or false: You should warn him that this may result in a conflict of interest.', 'ques_type': 11, 'options': ['true', 'false'], 'score': 'True'}]</t>
+    <t>questions = [
+    {
+        "title": "You are the HR manager for a startup software company. You have recently implemented a $20,000 employment branding campaign to spotlight the company\u2019s culture and benefits to potential job seekers.  Which Key Performance Indicator (KPI) should you use to measure the financial gain of the campaign?",
+        "ques_type": 2,
+        "options": [
+            "Return on investment.",
+            "Turnover rate.",
+            "Position time to fill.",
+            "New hire retention rate."
+        ],
+        "score": "Return on investment."
+    },
+    {
+        "title": "You are the HR manager for an auto manufacturer. The accounting manager has confided to you that she is nervous about leading an upcoming termination meeting because she is unsure how to deal with the significant pushback that is expected from the separating employee. How should you offer to help her?",
+        "ques_type": 2,
+        "options": [
+            "\u201cWould you like me to conduct the meeting and update you afterward?\u201d",
+            "\u201cWould you like me to cancel the meeting and give the employee another opportunity to improve?\u201d",
+            "\u201cWould you like to role-play the conversation with me in advance and look at some talking points you can use?\u201d",
+            "\u201cWould you like me to authorize an increase in their severance package you can use if they push back?\u201d"
+        ],
+        "score": "\u201cWould you like to role-play the conversation with me in advance and look at some talking points you can use?\u201d"
+    },
+    {
+        "title": "You are working as the HR manager at a paper company. A warehouse employee who started today has just told you that she is four months pregnant. She said she can only lift 10 pounds (approx. 4.5 kg) instead of the required 50 pounds (approx. 22.5 kg) and has requested a job accommodation. What action should you take?",
+        "ques_type": 2,
+        "options": [
+            "Ask the employee why she did not disclose her pregnancy during the interview.",
+            "Terminate the employee without addressing the accommodation.",
+            "Change the job description to reduce the lifting requirement.",
+            "Determine if there is a position available within the company that can accommodate the lifting restriction."
+        ],
+        "score": "Determine if there is a position available within the company that can accommodate the lifting restriction."
+    },
+    {
+        "title": "Your chief executive officer has requested that the accounting department consider hiring his nephew as an assistant accountant.  True or false: You should warn him that this may result in a conflict of interest.",
+        "ques_type": 11,
+        "options": [
+            "true",
+            "false"
+        ],
+        "score": "True"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +83,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +91,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +391,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
